--- a/data/graphs.xlsx
+++ b/data/graphs.xlsx
@@ -1,42 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>ccd</t>
+  </si>
+  <si>
+    <t>linear_regression</t>
+  </si>
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>support_vector_machines</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,118 +86,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -450,937 +429,927 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>x1</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>x2</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>x3</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="inlineStr">
-        <is>
-          <t>x4</t>
-        </is>
-      </c>
-      <c r="E1" s="7" t="inlineStr">
-        <is>
-          <t>actual</t>
-        </is>
-      </c>
-      <c r="F1" s="7" t="inlineStr">
-        <is>
-          <t>ccd</t>
-        </is>
-      </c>
-      <c r="G1" s="7" t="inlineStr">
-        <is>
-          <t>linear_regression</t>
-        </is>
-      </c>
-      <c r="H1" s="7" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="I1" s="7" t="inlineStr">
-        <is>
-          <t>support_vector_machines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
         <v>153.84</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="3">
         <v>100</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3">
         <v>40</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="4">
         <v>48.66</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="4">
         <v>46.93</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="4">
         <v>48.78</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="4">
         <v>50.22139999999999</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="4">
         <v>63.56645561615588</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="3">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="4">
         <v>153.84</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="3">
         <v>100</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="3">
         <v>40</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="3">
         <v>56</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="4">
         <v>51.76</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="4">
         <v>51.93</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="4">
         <v>54.4343</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="4">
         <v>64.09242971816424</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="4">
         <v>307.68</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="3">
         <v>100</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="3">
         <v>40</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="4">
         <v>61.1</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="4">
         <v>58.17</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="4">
         <v>62.99</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="4">
         <v>61.98570000000009</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="4">
         <v>64.76909792342222</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4">
         <v>307.68</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="3">
         <v>100</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="3">
         <v>40</v>
       </c>
-      <c r="E5" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5" s="4">
+        <v>65.1</v>
+      </c>
+      <c r="F5" s="4">
         <v>61.44</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="4">
         <v>66.14</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="4">
         <v>65.59350000000009</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="4">
         <v>65.29507202543058</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="4">
         <v>153.84</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="3">
         <v>200</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="3">
         <v>40</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4">
         <v>52.8</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="4">
         <v>49.33</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="4">
         <v>51.23</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="4">
         <v>53.07130000000006</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="4">
         <v>64.09242971816424</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4">
         <v>153.84</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="3">
         <v>200</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="3">
         <v>40</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="4">
         <v>58.15</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="4">
         <v>53.86</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="4">
         <v>54.38</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="4">
         <v>57.10649999999999</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="4">
         <v>64.6184038201726</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="4">
         <v>307.68</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="3">
         <v>200</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="3">
         <v>40</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="4">
         <v>64.56</v>
       </c>
-      <c r="F8" t="n">
-        <v>65.01000000000001</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8" s="4">
+        <v>65.01</v>
+      </c>
+      <c r="G8" s="4">
         <v>65.44</v>
       </c>
-      <c r="H8" t="n">
-        <v>65.00666428571439</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8" s="4">
+        <v>65.0066642857144</v>
+      </c>
+      <c r="I8" s="4">
         <v>65.67035202418933</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="4">
         <v>307.68</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="3">
         <v>200</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="3">
         <v>40</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="4">
         <v>70.05</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="4">
         <v>67.98</v>
       </c>
-      <c r="G9" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9" s="4">
+        <v>68.6</v>
+      </c>
+      <c r="H9" s="4">
         <v>68.92990428571439</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="4">
         <v>67.13090202818279</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="3">
         <v>2</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="4">
         <v>153.84</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="3">
         <v>100</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="3">
         <v>80</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="4">
         <v>61.3</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="4">
         <v>60.88</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="4">
         <v>61.5</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="4">
         <v>53.45699999999997</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="4">
         <v>65.14437792218096</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="4">
         <v>153.84</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="3">
         <v>100</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="3">
         <v>80</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="4">
         <v>66.8</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="4">
         <v>64.23</v>
       </c>
-      <c r="G11" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11" s="4">
+        <v>64.65</v>
+      </c>
+      <c r="H11" s="4">
         <v>58.06180000000002</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="4">
         <v>66.60492792617443</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="3">
         <v>2</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="4">
         <v>307.68</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="3">
         <v>100</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="3">
         <v>80</v>
       </c>
-      <c r="E12" t="n">
-        <v>73.01000000000001</v>
-      </c>
-      <c r="F12" t="n">
-        <v>75.18000000000001</v>
-      </c>
-      <c r="G12" t="n">
-        <v>75.70999999999999</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="E12" s="4">
+        <v>73.01</v>
+      </c>
+      <c r="F12" s="4">
+        <v>75.18</v>
+      </c>
+      <c r="G12" s="4">
+        <v>75.71</v>
+      </c>
+      <c r="H12" s="4">
         <v>71.2105000000001</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="4">
         <v>67.65687613019115</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="4">
         <v>307.68</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="3">
         <v>100</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="3">
         <v>80</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="4">
         <v>75.98</v>
       </c>
-      <c r="F13" t="n">
-        <v>76.95999999999999</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="F13" s="4">
+        <v>76.96</v>
+      </c>
+      <c r="G13" s="4">
         <v>78.86</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="4">
         <v>73.94966297619035</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="4">
         <v>68.18285023219951</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="4">
         <v>153.84</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="3">
         <v>200</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="3">
         <v>80</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="4">
         <v>57.7</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="4">
         <v>59.24</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="4">
         <v>63.95</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="4">
         <v>56.08809999999998</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="4">
         <v>65.29507202543058</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="3">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="4">
         <v>153.84</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="3">
         <v>200</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="3">
         <v>80</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="4">
         <v>61.85</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="4">
         <v>62.29</v>
       </c>
-      <c r="G15" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="G15" s="4">
+        <v>67.1</v>
+      </c>
+      <c r="H15" s="4">
         <v>60.3805047619048</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="4">
         <v>65.82104612743895</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="4">
         <v>307.68</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="3">
         <v>200</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="3">
         <v>80</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="4">
         <v>76.25</v>
       </c>
-      <c r="F16" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F16" s="4">
+        <v>77.99</v>
+      </c>
+      <c r="G16" s="4">
         <v>78.16</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="4">
         <v>72.85758571428578</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="4">
         <v>68.18285023219951</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="4">
         <v>307.68</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="3">
         <v>200</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="3">
         <v>80</v>
       </c>
-      <c r="E17" t="n">
-        <v>79.84999999999999</v>
-      </c>
-      <c r="F17" t="n">
-        <v>79.45999999999999</v>
-      </c>
-      <c r="G17" t="n">
-        <v>81.31999999999999</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="E17" s="4">
+        <v>79.85</v>
+      </c>
+      <c r="F17" s="4">
+        <v>79.46</v>
+      </c>
+      <c r="G17" s="4">
+        <v>81.32</v>
+      </c>
+      <c r="H17" s="4">
         <v>74.82344511904753</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="4">
         <v>68.70882433420788</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="4">
         <v>230.76</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="3">
         <v>150</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="3">
         <v>60</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="4">
         <v>59.39</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="4">
         <v>58.41</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="4">
         <v>61.89</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="4">
         <v>62.2140288095239</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="4">
         <v>64.76909792342222</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="3">
         <v>5</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="4">
         <v>230.76</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="3">
         <v>150</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="3">
         <v>60</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="4">
         <v>59.12</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="4">
         <v>64.72</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="4">
         <v>68.2</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="4">
         <v>71.37951119047615</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="4">
         <v>65.82104612743895</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="4">
         <v>76.92</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="3">
         <v>150</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="3">
         <v>60</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="3">
         <v>43</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="4">
         <v>48.07</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="4">
         <v>50.83</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="4">
         <v>47.68817142857142</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="4">
         <v>64.09242971816424</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="3">
         <v>3</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="4">
         <v>384.6</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="3">
         <v>150</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="3">
         <v>60</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="4">
         <v>76.95</v>
       </c>
-      <c r="F21" t="n">
-        <v>76.48999999999999</v>
-      </c>
-      <c r="G21" t="n">
-        <v>79.26000000000001</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="F21" s="4">
+        <v>76.49</v>
+      </c>
+      <c r="G21" s="4">
+        <v>79.26</v>
+      </c>
+      <c r="H21" s="4">
         <v>75.22423349206339</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="4">
         <v>68.18285023219951</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="3">
         <v>3</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="4">
         <v>230.76</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="3">
         <v>50</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="3">
         <v>60</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="4">
         <v>63.1</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="3">
         <v>67</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="4">
         <v>62.59</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="4">
         <v>65.56083694444453</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="4">
         <v>65.14437792218096</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="3">
         <v>3</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="4">
         <v>230.76</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="3">
         <v>250</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="3">
         <v>60</v>
       </c>
-      <c r="E23" t="n">
-        <v>71.18000000000001</v>
-      </c>
-      <c r="F23" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="E23" s="4">
+        <v>71.18</v>
+      </c>
+      <c r="F23" s="4">
+        <v>71.9</v>
+      </c>
+      <c r="G23" s="4">
         <v>67.5</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="4">
         <v>71.23572992063501</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="4">
         <v>67.13090202818279</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="3">
         <v>3</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="4">
         <v>230.76</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="3">
         <v>150</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="3">
         <v>20</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="3">
         <v>38</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="4">
         <v>46.67</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="4">
         <v>52.33</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="4">
         <v>48.05724753968255</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="4">
         <v>64.09242971816424</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="3">
         <v>3</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="4">
         <v>230.76</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="3">
         <v>150</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="3">
         <v>100</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="4">
         <v>76.16</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="4">
         <v>72.11</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="4">
         <v>77.77</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="4">
         <v>71.76469884920634</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="4">
         <v>68.18285023219951</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="3">
         <v>3</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="4">
         <v>230.76</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="3">
         <v>150</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="3">
         <v>60</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="4">
         <v>71.36</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="4">
         <v>71.41</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="4">
         <v>65.05</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="4">
         <v>71.19869325396822</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="4">
         <v>69.48379749553979</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="3">
         <v>3</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="4">
         <v>230.76</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="3">
         <v>150</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="3">
         <v>60</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="4">
         <v>71.44</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="4">
         <v>71.41</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="4">
         <v>65.05</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="4">
         <v>71.19869325396822</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" s="4">
         <v>69.48379749553979</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="3">
         <v>3</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="4">
         <v>230.76</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="3">
         <v>150</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="3">
         <v>60</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="3">
         <v>71</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="4">
         <v>71.41</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="4">
         <v>65.05</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28" s="4">
         <v>71.19869325396822</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28" s="4">
         <v>69.48379749553979</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="3">
         <v>3</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="4">
         <v>230.76</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="3">
         <v>150</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="3">
         <v>60</v>
       </c>
-      <c r="E29" t="n">
-        <v>71.20999999999999</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E29" s="4">
+        <v>71.21</v>
+      </c>
+      <c r="F29" s="4">
         <v>71.41</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="4">
         <v>65.05</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" s="4">
         <v>71.19869325396822</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29" s="4">
         <v>69.48379749553979</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="3">
         <v>3</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="4">
         <v>230.76</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="3">
         <v>150</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="3">
         <v>60</v>
       </c>
-      <c r="E30" t="n">
-        <v>71.18000000000001</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E30" s="4">
+        <v>71.18</v>
+      </c>
+      <c r="F30" s="4">
         <v>71.41</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="4">
         <v>65.05</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30" s="4">
         <v>71.19869325396822</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30" s="4">
         <v>69.48379749553979</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="3">
         <v>3</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="4">
         <v>230.76</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="3">
         <v>150</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="3">
         <v>60</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="4">
         <v>72.25</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="4">
         <v>71.41</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="4">
         <v>65.05</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31" s="4">
         <v>71.19869325396822</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31" s="4">
         <v>69.48379749553979</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>